--- a/medicine/Sexualité et sexologie/An_Erotic_Werewolf_in_London/An_Erotic_Werewolf_in_London.xlsx
+++ b/medicine/Sexualité et sexologie/An_Erotic_Werewolf_in_London/An_Erotic_Werewolf_in_London.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">An Erotic Werewolf in London est un film américano-britannique de série B réalisé par William Hellfire, sorti en 2006 directement en vidéo.
 Le titre du film parodie celui du film de John Landis de 1981, An American Werewolf in London.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Misty et Ruby, un couple de jeunes femmes, entrent dans un bar pour lesbiennes et rencontrent une femme séduisante Anoushka.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : An Erotic Werewolf in London
 Réalisateur : William Hellfire
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Misty Mundae : Misty
 Anoushka : Anoushka la femme Loup-garou (werewolf)
